--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
   <si>
     <t>Refer to column</t>
   </si>
@@ -604,6 +604,48 @@
   </si>
   <si>
     <t>Apply function</t>
+  </si>
+  <si>
+    <t>function= lambda x: x.max()-x.min()</t>
+  </si>
+  <si>
+    <t>df.apply(function)</t>
+  </si>
+  <si>
+    <t>Sort index</t>
+  </si>
+  <si>
+    <t>sort_index(ascending=False)</t>
+  </si>
+  <si>
+    <t>Sort value</t>
+  </si>
+  <si>
+    <t>df.order()</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>df.A.rank()</t>
+  </si>
+  <si>
+    <t>df[['a','b','c']].rank</t>
+  </si>
+  <si>
+    <t>Additional args: method='first', ascending=False</t>
+  </si>
+  <si>
+    <t>Hierarchical indexing</t>
+  </si>
+  <si>
+    <t>df.set_index(['a','b','c'])</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -931,11 +973,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1337,6 +1377,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" t="s">
         <v>184</v>
       </c>
@@ -1345,6 +1388,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
       <c r="B30" t="s">
         <v>187</v>
       </c>
@@ -1353,6 +1399,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
       <c r="B31" t="s">
         <v>190</v>
       </c>
@@ -1361,8 +1410,67 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
       <c r="B32" t="s">
         <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="241">
   <si>
     <t>Refer to column</t>
   </si>
@@ -646,6 +646,108 @@
   </si>
   <si>
     <t>Null</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>df.sum()</t>
+  </si>
+  <si>
+    <t>Additional args: axis=1 (sum for row)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>df.A.corr(df.B)</t>
+  </si>
+  <si>
+    <t>df.corr()</t>
+  </si>
+  <si>
+    <t>Use 2 to see correlation of everything</t>
+  </si>
+  <si>
+    <t>df.sum(level='Hierarchy')</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>datetime(yyyy,mm,dd)</t>
+  </si>
+  <si>
+    <t>can subtract and add</t>
+  </si>
+  <si>
+    <t>datetime.now()</t>
+  </si>
+  <si>
+    <t>Stats</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>df.A.hist(bins=500)</t>
+  </si>
+  <si>
+    <t>df.A.apply(np.log).hist(bins=500)</t>
+  </si>
+  <si>
+    <t>Use 2 to remove outliers</t>
+  </si>
+  <si>
+    <t>Convert str to datetime</t>
+  </si>
+  <si>
+    <t>datetime.strptime(df.time.ix[0], '%m/%d/%y %H:%M')</t>
+  </si>
+  <si>
+    <t>pd.to_datetime(df.time)</t>
+  </si>
+  <si>
+    <t>df.time.apply(lambda d: datetime.strptime(d, '%m/%d/%y %H:%M'))</t>
+  </si>
+  <si>
+    <t>Add. Args: left_on='A',left_index=True</t>
+  </si>
+  <si>
+    <t>df.merge(df2)</t>
+  </si>
+  <si>
+    <t>Numpy Concatenate</t>
+  </si>
+  <si>
+    <t>np.concatenate([list1,list2])</t>
+  </si>
+  <si>
+    <t>np.r_([list1,list2])</t>
+  </si>
+  <si>
+    <t>np.c_([list1,list2])</t>
+  </si>
+  <si>
+    <t>r for row, c for column</t>
+  </si>
+  <si>
+    <t>Combine and fill missing</t>
+  </si>
+  <si>
+    <t>df1.combine_first(df2)</t>
+  </si>
+  <si>
+    <t>Add. Args: keys=['a','b'] for hierarchical index</t>
+  </si>
+  <si>
+    <t>Unstack Pivot</t>
+  </si>
+  <si>
+    <t>df.unstack()</t>
   </si>
 </sst>
 </file>
@@ -973,9 +1075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1234,8 +1338,11 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1245,8 +1352,14 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1257,7 +1370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1268,7 +1381,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -1279,7 +1392,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1293,7 +1406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1340,7 +1453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1354,7 +1467,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1376,7 +1489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1500,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -1398,7 +1511,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -1409,7 +1522,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>153</v>
       </c>
@@ -1471,6 +1584,133 @@
       </c>
       <c r="C36" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C44" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="R" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Science" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
   <si>
     <t>Refer to column</t>
   </si>
@@ -270,9 +271,6 @@
     <t>Unique in list</t>
   </si>
   <si>
-    <t>np.unique</t>
-  </si>
-  <si>
     <t>Parse datetime</t>
   </si>
   <si>
@@ -330,9 +328,6 @@
     <t>Delete rows</t>
   </si>
   <si>
-    <t>df[-c(1:3)]</t>
-  </si>
-  <si>
     <t>Import file not in df format</t>
   </si>
   <si>
@@ -471,9 +466,6 @@
     <t>transform(df,group=cut(df$A,breaks=c(0,10,Inf),labels=c('&lt;10',&gt;10')))</t>
   </si>
   <si>
-    <t>Need one more break than label</t>
-  </si>
-  <si>
     <t>Join</t>
   </si>
   <si>
@@ -573,9 +565,6 @@
     <t>Use 2 to convert date into DOW</t>
   </si>
   <si>
-    <t>Count combos</t>
-  </si>
-  <si>
     <t>plyr -&gt; count(df,c(1:3))</t>
   </si>
   <si>
@@ -585,9 +574,6 @@
     <t>pd.Series(df.col).value_counts()</t>
   </si>
   <si>
-    <t>Use 2 to select multiple columns or enter index name</t>
-  </si>
-  <si>
     <t>Reindex and fill</t>
   </si>
   <si>
@@ -636,9 +622,6 @@
     <t>Additional args: method='first', ascending=False</t>
   </si>
   <si>
-    <t>Hierarchical indexing</t>
-  </si>
-  <si>
     <t>df.set_index(['a','b','c'])</t>
   </si>
   <si>
@@ -748,6 +731,297 @@
   </si>
   <si>
     <t>df.unstack()</t>
+  </si>
+  <si>
+    <t>Set Index</t>
+  </si>
+  <si>
+    <t>Creates Hierarchy</t>
+  </si>
+  <si>
+    <t>Drop Duplicates</t>
+  </si>
+  <si>
+    <t>Reshape</t>
+  </si>
+  <si>
+    <t>df.set_index(['a','b']).unstack('c')</t>
+  </si>
+  <si>
+    <t>Convert wide to long</t>
+  </si>
+  <si>
+    <t>pd.melt(df, id_vars=[cols'a'],var_name='obs',value_name='metric')</t>
+  </si>
+  <si>
+    <t>Variable is old col name, value is the number</t>
+  </si>
+  <si>
+    <t>df.pivot(index='a',columns='b',values='c')</t>
+  </si>
+  <si>
+    <t>Addition arg: 1: aggfunc=max</t>
+  </si>
+  <si>
+    <t>View Duplicates</t>
+  </si>
+  <si>
+    <t>df.duplicated(cols='a')</t>
+  </si>
+  <si>
+    <t>df.drop_duplicates(['a'])</t>
+  </si>
+  <si>
+    <t>df.a.value_counts()</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>Create series loop</t>
+  </si>
+  <si>
+    <t>pd.Series([float(i)**10 for i in range(10)])</t>
+  </si>
+  <si>
+    <t>Replace value</t>
+  </si>
+  <si>
+    <t>df.replace(0,1e-6)</t>
+  </si>
+  <si>
+    <t>df.a.replace({'orig1':new1,'orig2':new2})</t>
+  </si>
+  <si>
+    <t>Series of T/F to criteria</t>
+  </si>
+  <si>
+    <t>top5=df.a.apply(lambda s: s in df.a.value_counts().index[:5])--&gt;</t>
+  </si>
+  <si>
+    <t>df[top5]</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Add. Args: right = False; means that right end of range will be an open interval (NOT including endpoint)</t>
+  </si>
+  <si>
+    <t>pd.cut(df.a,[20,30,40],labels=['x','y'])</t>
+  </si>
+  <si>
+    <t>pd.qcut(df.a,4)</t>
+  </si>
+  <si>
+    <t>Bucket by Quantile</t>
+  </si>
+  <si>
+    <t>pd.qcut(df.a,[0,0.1,0.5])</t>
+  </si>
+  <si>
+    <t>Random Reordering</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>segments.take(new_order)</t>
+  </si>
+  <si>
+    <t>new_order=np.random.permutation(len(df))--&gt;</t>
+  </si>
+  <si>
+    <t>df[:20]</t>
+  </si>
+  <si>
+    <t>Split-Apply-Combine</t>
+  </si>
+  <si>
+    <t>df_grouped=df.groupby(df.a) --&gt;</t>
+  </si>
+  <si>
+    <t>df_grouped.mean()</t>
+  </si>
+  <si>
+    <t>3: .add_suffix('_mean')</t>
+  </si>
+  <si>
+    <t>Create Sequence</t>
+  </si>
+  <si>
+    <t>Import / Export</t>
+  </si>
+  <si>
+    <t>Import Multiple Excel Sheets</t>
+  </si>
+  <si>
+    <t>xl=pd.ExcelFile('file.xlsx')--&gt;</t>
+  </si>
+  <si>
+    <t>sheet_name=xl.sheet_names[:3]--&gt;</t>
+  </si>
+  <si>
+    <t>{sheet: xl.parse(sheet) for sheet in xl.sheet_names}</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>count(df,vars="x")</t>
+  </si>
+  <si>
+    <t>Can do combos</t>
+  </si>
+  <si>
+    <t>df[-c(1:3),]</t>
+  </si>
+  <si>
+    <t>Convert string to datetime</t>
+  </si>
+  <si>
+    <t>strptime(df[[1]],format="%Y-%m-%d %H:%M:%S")</t>
+  </si>
+  <si>
+    <t>as.POSIXct(df[1])</t>
+  </si>
+  <si>
+    <t>1: Converts to POSIXlt (use for date &amp; time), 2: best; POSIX calculations are always in seconds</t>
+  </si>
+  <si>
+    <t>Convert to numeric</t>
+  </si>
+  <si>
+    <t>df[,c(2:5)]&lt;-sapply(df[c(2:5)],as.numeric)</t>
+  </si>
+  <si>
+    <t>Concatenate</t>
+  </si>
+  <si>
+    <t>paste(df[[1]],df[[2]],sep = " ")</t>
+  </si>
+  <si>
+    <t>Create column of 1s</t>
+  </si>
+  <si>
+    <t>df[[3]]&lt;-rep(1,nrow(df))</t>
+  </si>
+  <si>
+    <t>Filter for NaN</t>
+  </si>
+  <si>
+    <t>df[is.na(df[[1]]),]</t>
+  </si>
+  <si>
+    <t>Need one more break than label; should generally have infinity on both side</t>
+  </si>
+  <si>
+    <t>for I in range(4)=[0,1,2,3]</t>
+  </si>
+  <si>
+    <t>normalize = lambda x: (x - x.mean())/x.std()</t>
+  </si>
+  <si>
+    <t>df.transform(normalize)</t>
+  </si>
+  <si>
+    <t>df_grouped.agg(np.mean)</t>
+  </si>
+  <si>
+    <t>Use 2 to select multiple columns or enter index name, iloc returns series</t>
+  </si>
+  <si>
+    <t>df.isnull().any(axis=0)</t>
+  </si>
+  <si>
+    <t>Find null</t>
+  </si>
+  <si>
+    <t>df.isnull().any(axis=1)</t>
+  </si>
+  <si>
+    <t>1 for row, 2 for column</t>
+  </si>
+  <si>
+    <t>pd.unique(df.a)</t>
+  </si>
+  <si>
+    <t>np.unique(df.a)</t>
+  </si>
+  <si>
+    <t>Split Groups into Chunks</t>
+  </si>
+  <si>
+    <t>chunks=dict(list(df_grouped))</t>
+  </si>
+  <si>
+    <t>Aggregate on Index</t>
+  </si>
+  <si>
+    <t>df.groupby(level='a',axis=0)['measure'].sum()</t>
+  </si>
+  <si>
+    <t>can also do: def fn(args): return df.fn()</t>
+  </si>
+  <si>
+    <t>Group mean</t>
+  </si>
+  <si>
+    <t>df.groupby('a')['count col'].mean()</t>
+  </si>
+  <si>
+    <t>-Visualizations allow us to more easily convey relationships and reveal deviations from patterns.</t>
+  </si>
+  <si>
+    <t>-Data Science - transformation of data into product</t>
+  </si>
+  <si>
+    <t>series.plot()</t>
+  </si>
+  <si>
+    <t>Plot cumulative</t>
+  </si>
+  <si>
+    <t>series.cumsum().plot()</t>
+  </si>
+  <si>
+    <t>np.random.normal(size=100)</t>
+  </si>
+  <si>
+    <t>Random Normal Distribution</t>
+  </si>
+  <si>
+    <t>Add args: subplots=True to split into different graphs, secondary_y='a' for secondary axis</t>
+  </si>
+  <si>
+    <t>Subplots</t>
+  </si>
+  <si>
+    <t>fig, axes = plt.subplots(nrows=1,ncols=3,…)--&gt;</t>
+  </si>
+  <si>
+    <t>refer to documentation</t>
+  </si>
+  <si>
+    <t>Plot Group</t>
+  </si>
+  <si>
+    <t>df.groupby('a').measure.sum().plot()</t>
+  </si>
+  <si>
+    <t>Stacked bar from Crosstab</t>
+  </si>
+  <si>
+    <t>df_ct.div(df_ct.sum(1).astype(float), axis=0).plot(kind='barh', stacked=True, color=['black','gold'])</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>df.boxplot(column='a',by='b')</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A68" sqref="A67:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,7 +1439,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,7 +1466,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1209,7 +1483,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1279,6 +1553,9 @@
       <c r="D12" t="s">
         <v>41</v>
       </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1339,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,10 +1630,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1380,10 +1657,16 @@
       <c r="C19" t="s">
         <v>62</v>
       </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -1394,7 +1677,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1475,18 +1758,21 @@
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>307</v>
+      </c>
+      <c r="D27" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,57 +1780,63 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="F32" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,27 +1855,30 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1591,84 +1886,84 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
         <v>208</v>
       </c>
-      <c r="D37" t="s">
-        <v>214</v>
-      </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1676,19 +1971,19 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1696,21 +1991,336 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="F51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" t="s">
-        <v>240</v>
+      <c r="B59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>317</v>
+      </c>
+      <c r="F62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -1721,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1774,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1785,7 +2395,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,7 +2406,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1807,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1818,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,7 +2439,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1840,7 +2450,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1851,7 +2461,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1862,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1873,7 +2483,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1881,13 +2491,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1895,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,10 +2527,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1928,24 +2538,24 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1953,13 +2563,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
         <v>110</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,16 +2577,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,10 +2594,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1995,10 +2605,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,7 +2630,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2028,13 +2638,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,10 +2666,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2067,10 +2677,10 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2078,13 +2688,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
         <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,13 +2702,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2106,13 +2716,13 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,13 +2730,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
         <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2134,13 +2744,13 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2148,63 +2758,63 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" t="s">
-        <v>152</v>
-      </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,24 +2822,24 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
         <v>165</v>
-      </c>
-      <c r="B40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,10 +2847,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2248,21 +2858,21 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2270,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2281,16 +2891,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" t="s">
         <v>178</v>
-      </c>
-      <c r="C45" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2298,10 +2908,90 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>280</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="R" sheetId="2" r:id="rId2"/>
     <sheet name="Data Science" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'R'!$A$1:$F$53</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="361">
   <si>
     <t>Refer to column</t>
   </si>
@@ -247,9 +250,6 @@
     <t>df.drop(['col1','col2'],axis=1)</t>
   </si>
   <si>
-    <t>df.to_csv("file.csv",index=False)</t>
-  </si>
-  <si>
     <t>Export csv</t>
   </si>
   <si>
@@ -334,9 +334,6 @@
     <t>readLines('file.csv')</t>
   </si>
   <si>
-    <t>Use skip arg to skip the useless stuff</t>
-  </si>
-  <si>
     <t>Merging CSV's</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>plyr -&gt; join(df1,df2,by="lookup col")</t>
   </si>
   <si>
-    <t>Left join by default</t>
-  </si>
-  <si>
     <t>merged(df1,df2,by="lookup col")</t>
   </si>
   <si>
@@ -541,9 +535,6 @@
     <t>Reshape from Wide to Long</t>
   </si>
   <si>
-    <t>reshape(df,varying=c(colnames),v.names="Metric",timevar="new col name",times=c(colnames),direction=long)</t>
-  </si>
-  <si>
     <t>Random Number</t>
   </si>
   <si>
@@ -760,9 +751,6 @@
     <t>df.pivot(index='a',columns='b',values='c')</t>
   </si>
   <si>
-    <t>Addition arg: 1: aggfunc=max</t>
-  </si>
-  <si>
     <t>View Duplicates</t>
   </si>
   <si>
@@ -883,15 +871,6 @@
     <t>Convert string to datetime</t>
   </si>
   <si>
-    <t>strptime(df[[1]],format="%Y-%m-%d %H:%M:%S")</t>
-  </si>
-  <si>
-    <t>as.POSIXct(df[1])</t>
-  </si>
-  <si>
-    <t>1: Converts to POSIXlt (use for date &amp; time), 2: best; POSIX calculations are always in seconds</t>
-  </si>
-  <si>
     <t>Convert to numeric</t>
   </si>
   <si>
@@ -916,9 +895,6 @@
     <t>df[is.na(df[[1]]),]</t>
   </si>
   <si>
-    <t>Need one more break than label; should generally have infinity on both side</t>
-  </si>
-  <si>
     <t>for I in range(4)=[0,1,2,3]</t>
   </si>
   <si>
@@ -1022,6 +998,120 @@
   </si>
   <si>
     <t>df.boxplot(column='a',by='b')</t>
+  </si>
+  <si>
+    <t>Add Column of 1s</t>
+  </si>
+  <si>
+    <t>Addition arg: 1: aggfunc=max (default is avg)</t>
+  </si>
+  <si>
+    <t>df.to_csv("file.csv")</t>
+  </si>
+  <si>
+    <t>df['Ones']=pd.Series([1]*len(df))</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>list(set(df.a))</t>
+  </si>
+  <si>
+    <t>#1 for values only</t>
+  </si>
+  <si>
+    <t>Convert NA to zero</t>
+  </si>
+  <si>
+    <t>df[,3:4][is.na(df[,3:4])]&lt;-0</t>
+  </si>
+  <si>
+    <t>hist(df$countitem,freq=F,breaks=100)</t>
+  </si>
+  <si>
+    <t>freq = F for densitiy, T for freq</t>
+  </si>
+  <si>
+    <t>Use skip arg to skip the useless stuff; na.strings='NULL' to convert null to numeric</t>
+  </si>
+  <si>
+    <t>reshape(df,varying=c(colnames),v.names="Metric Name",timevar="new col name",times=c(colnames),direction=long)</t>
+  </si>
+  <si>
+    <t>colnames = wide metrics, new col name = name for wide metrics</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>Nulls</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>cut(df$a,3,labels=c('Low','Med','High'))</t>
+  </si>
+  <si>
+    <t>Quartile</t>
+  </si>
+  <si>
+    <t>quantile(df$a,(0:4)/4)</t>
+  </si>
+  <si>
+    <t>Need one more break than label; should generally have infinity on both side; can use quantile fn as break</t>
+  </si>
+  <si>
+    <t>strptime(df[[1]],"%Y-%m-%d %H:%M:%S")</t>
+  </si>
+  <si>
+    <t>1: Converts to POSIXlt (use for date &amp; time), 2: best; POSIX calculations are always in seconds; may need to convert to POSIXlt BEFORE POSIXct</t>
+  </si>
+  <si>
+    <t>unique(df)</t>
+  </si>
+  <si>
+    <t>data.table</t>
+  </si>
+  <si>
+    <t>Get frequency</t>
+  </si>
+  <si>
+    <t>dt&lt;-data.table(df)  --&gt;</t>
+  </si>
+  <si>
+    <t>dt[, list(Count=.N), by=Variable]</t>
+  </si>
+  <si>
+    <t>Return first occurrences</t>
+  </si>
+  <si>
+    <t>df[match(unique(df$a),df$a),]</t>
+  </si>
+  <si>
+    <t>Change vector of row nums</t>
+  </si>
+  <si>
+    <t>x&lt;-vector</t>
+  </si>
+  <si>
+    <t>df$a[x]&lt;-0</t>
+  </si>
+  <si>
+    <t>getwd()</t>
+  </si>
+  <si>
+    <t>Get / set working directory</t>
+  </si>
+  <si>
+    <t>setwd(dir)</t>
+  </si>
+  <si>
+    <t>as.POSIXct(df$a,"%Y-%m-%d %H:%M:%S",tz="UTC")</t>
+  </si>
+  <si>
+    <t>Left join by default, merge more reliable</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A68" sqref="A67:A68"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,7 +1529,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,7 +1556,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1483,7 +1573,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1554,7 +1644,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1616,7 +1706,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,10 +1720,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,15 +1748,15 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
@@ -1677,7 +1767,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1719,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1730,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1741,13 +1831,13 @@
         <v>59</v>
       </c>
       <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1755,24 +1845,30 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>306</v>
+        <v>297</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,63 +1876,63 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1855,30 +1951,30 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,84 +1982,84 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" t="s">
         <v>214</v>
-      </c>
-      <c r="B40" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D40" t="s">
-        <v>217</v>
-      </c>
-      <c r="F40" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1971,19 +2067,19 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" t="s">
         <v>225</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1991,24 +2087,24 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,24 +2112,24 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" t="s">
         <v>238</v>
-      </c>
-      <c r="B46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,21 +2137,21 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,103 +2159,103 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E50" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" t="s">
         <v>259</v>
-      </c>
-      <c r="B52" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D54" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F54" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,44 +2263,44 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C56" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,10 +2308,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,10 +2319,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2234,93 +2330,104 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D65" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C66" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C68" t="s">
-        <v>331</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>327</v>
+      </c>
+      <c r="B69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C69" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2384,7 +2491,7 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2395,7 +2502,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,7 +2513,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2417,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2428,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2439,7 +2546,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2450,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2461,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,7 +2579,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2483,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2491,13 +2598,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" t="s">
-        <v>96</v>
-      </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2505,10 +2612,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2527,10 +2634,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,24 +2645,24 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,13 +2670,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,16 +2684,16 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2594,10 +2701,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2605,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,10 +2723,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2630,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2638,13 +2745,13 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2652,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,10 +2773,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2677,10 +2784,10 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2688,13 +2795,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" t="s">
         <v>134</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2702,13 +2809,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2716,13 +2826,13 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,13 +2840,13 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2744,13 +2854,16 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="D33" t="s">
+        <v>340</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2758,63 +2871,63 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" t="s">
-        <v>149</v>
-      </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2822,24 +2935,24 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" t="s">
         <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2847,10 +2960,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2858,21 +2971,24 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>335</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,10 +2996,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2891,16 +3007,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2908,65 +3024,163 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F46" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D47" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
         <v>284</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>285</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" t="s">
         <v>286</v>
       </c>
-      <c r="F47" t="s">
+      <c r="C51" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>292</v>
-      </c>
-      <c r="C50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>294</v>
-      </c>
-      <c r="C51" t="s">
-        <v>295</v>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2986,12 +3200,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="372">
   <si>
     <t>Refer to column</t>
   </si>
@@ -469,9 +469,6 @@
     <t>plyr -&gt; join(df1,df2,by="lookup col")</t>
   </si>
   <si>
-    <t>merged(df1,df2,by="lookup col")</t>
-  </si>
-  <si>
     <t>Apply</t>
   </si>
   <si>
@@ -1112,13 +1109,72 @@
   </si>
   <si>
     <t>Left join by default, merge more reliable</t>
+  </si>
+  <si>
+    <t>-Good data nalysis begins with a question</t>
+  </si>
+  <si>
+    <t>-Data visualization comes last</t>
+  </si>
+  <si>
+    <t>-Space + Time = Story</t>
+  </si>
+  <si>
+    <t>-Types of charts --&gt; comparison, distribution, composition, relationship</t>
+  </si>
+  <si>
+    <t>Index and Partition</t>
+  </si>
+  <si>
+    <t>ave(seq_along(df$a),df$a,FUN=seq_along)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dt[, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= seq(.N), by=Variable]</t>
+    </r>
+  </si>
+  <si>
+    <t>Applying FUN to Partitions</t>
+  </si>
+  <si>
+    <t>ave(vector_to_be_split,level_to_be_split_at, FUN=function(chunk) length(chunk))</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>merge(df1,df2,by="lookup col")</t>
+  </si>
+  <si>
+    <t>names(df)[names(df)=="OldName"]&lt;-"Name"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,6 +1184,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1441,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,7 +1593,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,7 +1620,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1573,7 +1637,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1644,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1720,10 +1784,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1748,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1848,16 +1912,16 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" t="s">
         <v>328</v>
-      </c>
-      <c r="F27" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,63 +1940,63 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" t="s">
         <v>176</v>
       </c>
-      <c r="C29" t="s">
-        <v>177</v>
-      </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" t="s">
         <v>178</v>
-      </c>
-      <c r="C30" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
         <v>181</v>
-      </c>
-      <c r="C31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
         <v>183</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>184</v>
       </c>
-      <c r="D32" t="s">
-        <v>185</v>
-      </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
         <v>186</v>
-      </c>
-      <c r="C33" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
         <v>188</v>
-      </c>
-      <c r="C34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1951,30 +2015,30 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
         <v>190</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>191</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>192</v>
-      </c>
-      <c r="F35" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
         <v>231</v>
-      </c>
-      <c r="C36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1982,33 +2046,33 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
         <v>197</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
         <v>198</v>
-      </c>
-      <c r="D37" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
         <v>200</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>202</v>
-      </c>
-      <c r="F38" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,33 +2080,33 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
         <v>205</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" t="s">
         <v>206</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-      <c r="F39" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
         <v>210</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>211</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>212</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
-      </c>
-      <c r="F40" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2050,16 +2114,16 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" t="s">
         <v>215</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>216</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>217</v>
-      </c>
-      <c r="E41" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2067,19 +2131,19 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" t="s">
         <v>221</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>222</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>223</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2087,24 +2151,24 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
         <v>226</v>
-      </c>
-      <c r="C43" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" t="s">
         <v>234</v>
-      </c>
-      <c r="B44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
         <v>236</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>237</v>
-      </c>
-      <c r="F46" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,21 +2201,21 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
         <v>240</v>
-      </c>
-      <c r="C47" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
         <v>244</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>245</v>
-      </c>
-      <c r="C48" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,103 +2223,103 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
         <v>247</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>248</v>
-      </c>
-      <c r="D49" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" t="s">
         <v>250</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>251</v>
-      </c>
-      <c r="E50" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" t="s">
         <v>254</v>
-      </c>
-      <c r="B51" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" t="s">
-        <v>256</v>
-      </c>
-      <c r="F51" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" t="s">
         <v>258</v>
-      </c>
-      <c r="C52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" t="s">
         <v>261</v>
-      </c>
-      <c r="B53" t="s">
-        <v>260</v>
-      </c>
-      <c r="C53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" t="s">
         <v>265</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>290</v>
+      </c>
+      <c r="E54" t="s">
         <v>266</v>
       </c>
-      <c r="D54" t="s">
-        <v>291</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>267</v>
-      </c>
-      <c r="F54" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" t="s">
         <v>289</v>
-      </c>
-      <c r="D55" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,44 +2327,44 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" t="s">
         <v>270</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>271</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>272</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>273</v>
-      </c>
-      <c r="E57" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" t="s">
         <v>294</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" t="s">
         <v>295</v>
-      </c>
-      <c r="D58" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2308,10 +2372,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
         <v>299</v>
-      </c>
-      <c r="C59" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2319,10 +2383,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" t="s">
         <v>301</v>
-      </c>
-      <c r="C60" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2330,104 +2394,104 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" t="s">
         <v>304</v>
-      </c>
-      <c r="C61" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F62" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" t="s">
         <v>309</v>
-      </c>
-      <c r="C63" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" t="s">
         <v>314</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>315</v>
-      </c>
-      <c r="D65" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" t="s">
         <v>317</v>
-      </c>
-      <c r="C66" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" t="s">
         <v>319</v>
-      </c>
-      <c r="C67" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
         <v>321</v>
-      </c>
-      <c r="C68" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2438,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2604,7 +2668,7 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,7 +2690,7 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2656,7 +2720,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>104</v>
@@ -2815,7 +2879,7 @@
         <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>137</v>
@@ -2848,6 +2912,9 @@
       <c r="D32" t="s">
         <v>141</v>
       </c>
+      <c r="E32" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2860,10 +2927,10 @@
         <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,57 +2944,57 @@
         <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="F34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" t="s">
         <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
         <v>154</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>155</v>
-      </c>
-      <c r="D38" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2935,24 +3002,24 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
         <v>157</v>
-      </c>
-      <c r="C39" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
         <v>159</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>161</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" t="s">
         <v>163</v>
-      </c>
-      <c r="C41" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2971,24 +3038,24 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
+        <v>334</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
         <v>168</v>
-      </c>
-      <c r="C44" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3007,16 +3074,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
         <v>171</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>172</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>173</v>
-      </c>
-      <c r="F45" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3024,44 +3091,44 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" t="s">
         <v>275</v>
       </c>
-      <c r="C46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>276</v>
-      </c>
-      <c r="F46" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" t="s">
         <v>344</v>
-      </c>
-      <c r="D47" t="s">
-        <v>359</v>
-      </c>
-      <c r="F47" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" t="s">
         <v>280</v>
-      </c>
-      <c r="C48" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3069,10 +3136,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C49" t="s">
         <v>282</v>
-      </c>
-      <c r="C49" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,46 +3147,46 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
         <v>284</v>
-      </c>
-      <c r="C50" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
         <v>286</v>
-      </c>
-      <c r="C51" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s">
+        <v>329</v>
+      </c>
+      <c r="C52" t="s">
         <v>330</v>
-      </c>
-      <c r="C52" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
+        <v>331</v>
+      </c>
+      <c r="F53" t="s">
         <v>332</v>
-      </c>
-      <c r="F53" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3127,46 +3194,49 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54" t="s">
         <v>341</v>
-      </c>
-      <c r="C54" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" t="s">
         <v>347</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>348</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>349</v>
-      </c>
-      <c r="D55" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" t="s">
         <v>351</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>353</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>354</v>
-      </c>
-      <c r="D57" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3174,38 +3244,85 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" t="s">
         <v>357</v>
       </c>
-      <c r="C58" t="s">
-        <v>356</v>
-      </c>
-      <c r="D58" t="s">
-        <v>358</v>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" t="s">
+        <v>365</v>
+      </c>
+      <c r="D59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -397,9 +397,6 @@
     <t>df[order(-df$A),]</t>
   </si>
   <si>
-    <t>-ve for desc, +ve for asc</t>
-  </si>
-  <si>
     <t>Aggregating data</t>
   </si>
   <si>
@@ -1168,6 +1165,9 @@
   </si>
   <si>
     <t>names(df)[names(df)=="OldName"]&lt;-"Name"</t>
+  </si>
+  <si>
+    <t>-ve for desc, +ve for asc; -xtfrm(POSIX)</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1593,7 +1593,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1708,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,10 +1784,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,10 +1812,10 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,16 +1912,16 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E27" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" t="s">
         <v>327</v>
-      </c>
-      <c r="F27" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,63 +1940,63 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" t="s">
         <v>175</v>
       </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" t="s">
         <v>177</v>
-      </c>
-      <c r="C30" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
         <v>180</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
         <v>182</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>183</v>
       </c>
-      <c r="D32" t="s">
-        <v>184</v>
-      </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
         <v>185</v>
-      </c>
-      <c r="C33" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
         <v>187</v>
-      </c>
-      <c r="C34" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2015,30 +2015,30 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
         <v>189</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>190</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>191</v>
-      </c>
-      <c r="F35" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
         <v>230</v>
-      </c>
-      <c r="C36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,33 +2046,33 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" t="s">
         <v>196</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
         <v>197</v>
-      </c>
-      <c r="D37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
         <v>199</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>200</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>201</v>
-      </c>
-      <c r="F38" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,33 +2080,33 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" t="s">
         <v>204</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
         <v>205</v>
-      </c>
-      <c r="D39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>211</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>212</v>
-      </c>
-      <c r="F40" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2114,16 +2114,16 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
         <v>214</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>215</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>216</v>
-      </c>
-      <c r="E41" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,19 +2131,19 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" t="s">
         <v>220</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>221</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>222</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>223</v>
-      </c>
-      <c r="F42" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2151,24 +2151,24 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" t="s">
         <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
         <v>233</v>
-      </c>
-      <c r="B44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,24 +2176,24 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" t="s">
         <v>235</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>236</v>
-      </c>
-      <c r="F46" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,21 +2201,21 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
         <v>239</v>
-      </c>
-      <c r="C47" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
         <v>243</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>244</v>
-      </c>
-      <c r="C48" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,103 +2223,103 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" t="s">
         <v>246</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>247</v>
-      </c>
-      <c r="D49" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
         <v>249</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>250</v>
-      </c>
-      <c r="E50" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" t="s">
         <v>253</v>
-      </c>
-      <c r="B51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B52" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
         <v>257</v>
-      </c>
-      <c r="C52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D52" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" t="s">
         <v>260</v>
-      </c>
-      <c r="B53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" t="s">
         <v>264</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" t="s">
         <v>265</v>
       </c>
-      <c r="D54" t="s">
-        <v>290</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>266</v>
-      </c>
-      <c r="F54" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" t="s">
         <v>288</v>
-      </c>
-      <c r="D55" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2327,44 +2327,44 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" t="s">
         <v>269</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>270</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>271</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>272</v>
-      </c>
-      <c r="E57" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" t="s">
         <v>293</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F58" t="s">
         <v>294</v>
-      </c>
-      <c r="D58" t="s">
-        <v>292</v>
-      </c>
-      <c r="F58" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,10 +2372,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" t="s">
         <v>298</v>
-      </c>
-      <c r="C59" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,10 +2383,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" t="s">
         <v>300</v>
-      </c>
-      <c r="C60" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,104 +2394,104 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C61" t="s">
         <v>303</v>
-      </c>
-      <c r="C61" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" t="s">
         <v>308</v>
-      </c>
-      <c r="C63" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="C65" t="s">
         <v>313</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>314</v>
-      </c>
-      <c r="D65" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" t="s">
         <v>316</v>
-      </c>
-      <c r="C66" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" t="s">
         <v>318</v>
-      </c>
-      <c r="C67" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
         <v>320</v>
-      </c>
-      <c r="C68" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2504,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,7 +2668,7 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>104</v>
@@ -2815,7 +2815,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>122</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,13 +2823,13 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="F26" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2837,10 +2837,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
         <v>128</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2848,10 +2848,10 @@
         <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
         <v>130</v>
-      </c>
-      <c r="C28" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2859,13 +2859,13 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>133</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2873,16 +2873,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
         <v>135</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2890,13 +2890,13 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" t="s">
         <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,16 +2904,16 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
         <v>139</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>140</v>
       </c>
-      <c r="D32" t="s">
-        <v>141</v>
-      </c>
       <c r="E32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2921,16 +2921,16 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
       </c>
-      <c r="C33" t="s">
-        <v>143</v>
-      </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2938,63 +2938,63 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
         <v>144</v>
       </c>
-      <c r="C34" t="s">
-        <v>145</v>
-      </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>147</v>
-      </c>
-      <c r="C35" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>154</v>
-      </c>
-      <c r="D38" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,24 +3002,24 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
         <v>156</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
         <v>158</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>160</v>
-      </c>
-      <c r="F40" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3027,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
         <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3038,24 +3038,24 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
         <v>164</v>
-      </c>
-      <c r="C42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,10 +3063,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
         <v>167</v>
-      </c>
-      <c r="C44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3074,16 +3074,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>171</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>172</v>
-      </c>
-      <c r="F45" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,44 +3091,44 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" t="s">
         <v>274</v>
       </c>
-      <c r="C46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>275</v>
-      </c>
-      <c r="F46" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" t="s">
         <v>343</v>
-      </c>
-      <c r="D47" t="s">
-        <v>358</v>
-      </c>
-      <c r="F47" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" t="s">
         <v>279</v>
-      </c>
-      <c r="C48" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,10 +3136,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
         <v>281</v>
-      </c>
-      <c r="C49" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,46 +3147,46 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" t="s">
         <v>283</v>
-      </c>
-      <c r="C50" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
         <v>285</v>
-      </c>
-      <c r="C51" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" t="s">
         <v>329</v>
-      </c>
-      <c r="C52" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
+        <v>330</v>
+      </c>
+      <c r="F53" t="s">
         <v>331</v>
-      </c>
-      <c r="F53" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3194,35 +3194,35 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>339</v>
+      </c>
+      <c r="C54" t="s">
         <v>340</v>
-      </c>
-      <c r="C54" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>345</v>
+      </c>
+      <c r="B55" t="s">
         <v>346</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>347</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>348</v>
-      </c>
-      <c r="D55" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
         <v>350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3230,13 +3230,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" t="s">
         <v>352</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>353</v>
-      </c>
-      <c r="D57" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,38 +3244,38 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" t="s">
+        <v>354</v>
+      </c>
+      <c r="D58" t="s">
         <v>356</v>
-      </c>
-      <c r="C58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D58" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C59" t="s">
         <v>364</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>365</v>
-      </c>
-      <c r="D59" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" t="s">
         <v>367</v>
-      </c>
-      <c r="C60" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3297,32 +3297,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="389">
   <si>
     <t>Refer to column</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>ddply(df,.(A,B),summarize,Imps=sum(Imps))</t>
-  </si>
-  <si>
-    <t>Rename column</t>
   </si>
   <si>
     <t>names(df)[1]&lt;-"Name"</t>
@@ -1168,6 +1165,60 @@
   </si>
   <si>
     <t>-ve for desc, +ve for asc; -xtfrm(POSIX)</t>
+  </si>
+  <si>
+    <t>Rename column / DF</t>
+  </si>
+  <si>
+    <t>names(dflist) for names of list of data frames</t>
+  </si>
+  <si>
+    <t>Delete columns</t>
+  </si>
+  <si>
+    <t>df$a &lt;- NULL</t>
+  </si>
+  <si>
+    <t>df&lt;-df[-c(1,3:6,12)]</t>
+  </si>
+  <si>
+    <t>attr(df$a)</t>
+  </si>
+  <si>
+    <t>View List of Dimension Values</t>
+  </si>
+  <si>
+    <t>Convert to weekdays</t>
+  </si>
+  <si>
+    <t>weekdays(df$date)</t>
+  </si>
+  <si>
+    <t>attr(df$date,"tzone")&lt;-"America/Toronto"</t>
+  </si>
+  <si>
+    <t>strftime(x$Date,"%H")</t>
+  </si>
+  <si>
+    <t>Convert to hours</t>
+  </si>
+  <si>
+    <t>Apply Multiple Data Tables</t>
+  </si>
+  <si>
+    <t>lapply(names(df[,4:10]), function(x) dt[,list(Count=.N),by=x])</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>percent(df$a)</t>
+  </si>
+  <si>
+    <t>part of 'scales' package</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1593,7 +1644,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,7 +1671,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -1637,7 +1688,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -1708,7 +1759,7 @@
         <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1770,7 +1821,7 @@
         <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,10 +1835,10 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,10 +1863,10 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,7 +1927,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,16 +1963,16 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" t="s">
+        <v>325</v>
+      </c>
+      <c r="F27" t="s">
         <v>326</v>
-      </c>
-      <c r="F27" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,63 +1991,63 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
         <v>174</v>
       </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
         <v>176</v>
-      </c>
-      <c r="C30" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" t="s">
         <v>179</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
         <v>181</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>182</v>
       </c>
-      <c r="D32" t="s">
-        <v>183</v>
-      </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
         <v>184</v>
-      </c>
-      <c r="C33" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,10 +2055,10 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
         <v>186</v>
-      </c>
-      <c r="C34" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2015,30 +2066,30 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
         <v>188</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>189</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>190</v>
-      </c>
-      <c r="F35" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" t="s">
         <v>229</v>
-      </c>
-      <c r="C36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,33 +2097,33 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s">
         <v>195</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" t="s">
         <v>196</v>
-      </c>
-      <c r="D37" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
         <v>198</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>199</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>200</v>
-      </c>
-      <c r="F38" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,33 +2131,33 @@
         <v>82</v>
       </c>
       <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s">
         <v>203</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" t="s">
         <v>204</v>
-      </c>
-      <c r="D39" t="s">
-        <v>206</v>
-      </c>
-      <c r="F39" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" t="s">
         <v>208</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>209</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>210</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>211</v>
-      </c>
-      <c r="F40" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2114,16 +2165,16 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
         <v>213</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>214</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>215</v>
-      </c>
-      <c r="E41" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,19 +2182,19 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" t="s">
         <v>219</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>220</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>221</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>222</v>
-      </c>
-      <c r="F42" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2151,24 +2202,24 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
         <v>224</v>
-      </c>
-      <c r="C43" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" t="s">
         <v>232</v>
-      </c>
-      <c r="B44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,24 +2227,24 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" t="s">
         <v>234</v>
       </c>
-      <c r="C46" t="s">
+      <c r="F46" t="s">
         <v>235</v>
-      </c>
-      <c r="F46" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,21 +2252,21 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" t="s">
         <v>238</v>
-      </c>
-      <c r="C47" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="s">
         <v>242</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>243</v>
-      </c>
-      <c r="C48" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,103 +2274,103 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
         <v>245</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>246</v>
-      </c>
-      <c r="D49" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
         <v>248</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>249</v>
-      </c>
-      <c r="E50" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" t="s">
         <v>252</v>
-      </c>
-      <c r="B51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C51" t="s">
-        <v>254</v>
-      </c>
-      <c r="F51" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" t="s">
         <v>256</v>
-      </c>
-      <c r="C52" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" t="s">
         <v>259</v>
-      </c>
-      <c r="B53" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" t="s">
-        <v>261</v>
-      </c>
-      <c r="D53" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" t="s">
         <v>263</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" t="s">
         <v>264</v>
       </c>
-      <c r="D54" t="s">
-        <v>289</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>265</v>
-      </c>
-      <c r="F54" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" t="s">
         <v>287</v>
-      </c>
-      <c r="D55" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2327,44 +2378,44 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>269</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>270</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>271</v>
-      </c>
-      <c r="E57" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
         <v>292</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" t="s">
         <v>293</v>
-      </c>
-      <c r="D58" t="s">
-        <v>291</v>
-      </c>
-      <c r="F58" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,10 +2423,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" t="s">
         <v>297</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2383,10 +2434,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" t="s">
         <v>299</v>
-      </c>
-      <c r="C60" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2394,104 +2445,104 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" t="s">
         <v>302</v>
-      </c>
-      <c r="C61" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B63" t="s">
+        <v>306</v>
+      </c>
+      <c r="C63" t="s">
         <v>307</v>
-      </c>
-      <c r="C63" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" t="s">
         <v>312</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>313</v>
-      </c>
-      <c r="D65" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B66" t="s">
+        <v>314</v>
+      </c>
+      <c r="C66" t="s">
         <v>315</v>
-      </c>
-      <c r="C66" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" t="s">
         <v>317</v>
-      </c>
-      <c r="C67" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" t="s">
         <v>319</v>
-      </c>
-      <c r="C68" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2502,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,7 +2719,7 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2690,7 +2741,7 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,7 +2771,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
         <v>104</v>
@@ -2815,7 +2866,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,7 +2930,7 @@
         <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>136</v>
@@ -2904,16 +2955,19 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>139</v>
       </c>
-      <c r="D32" t="s">
-        <v>140</v>
-      </c>
       <c r="E32" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="F32" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2921,16 +2975,16 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
         <v>141</v>
       </c>
-      <c r="C33" t="s">
-        <v>142</v>
-      </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2938,63 +2992,63 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
         <v>143</v>
       </c>
-      <c r="C34" t="s">
-        <v>144</v>
-      </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
         <v>145</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>146</v>
-      </c>
-      <c r="C35" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
         <v>150</v>
-      </c>
-      <c r="C37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
         <v>152</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,24 +3056,24 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
         <v>155</v>
-      </c>
-      <c r="C39" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
         <v>157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>158</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>159</v>
-      </c>
-      <c r="F40" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3027,10 +3081,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
         <v>161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3038,24 +3092,24 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" t="s">
         <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3063,10 +3117,10 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3074,16 +3128,16 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
         <v>169</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>171</v>
-      </c>
-      <c r="F45" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3091,44 +3145,44 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
         <v>273</v>
       </c>
-      <c r="C46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>274</v>
-      </c>
-      <c r="F46" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" t="s">
+        <v>356</v>
+      </c>
+      <c r="F47" t="s">
         <v>342</v>
-      </c>
-      <c r="D47" t="s">
-        <v>357</v>
-      </c>
-      <c r="F47" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" t="s">
         <v>278</v>
-      </c>
-      <c r="C48" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,10 +3190,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
         <v>280</v>
-      </c>
-      <c r="C49" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,46 +3201,46 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" t="s">
         <v>282</v>
-      </c>
-      <c r="C50" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" t="s">
         <v>284</v>
-      </c>
-      <c r="C51" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" t="s">
         <v>328</v>
-      </c>
-      <c r="C52" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C53" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" t="s">
         <v>330</v>
-      </c>
-      <c r="F53" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3194,35 +3248,35 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C54" t="s">
         <v>339</v>
-      </c>
-      <c r="C54" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" t="s">
         <v>345</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>346</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>347</v>
-      </c>
-      <c r="D55" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
         <v>349</v>
-      </c>
-      <c r="C56" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3230,13 +3284,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>350</v>
+      </c>
+      <c r="C57" t="s">
         <v>351</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>352</v>
-      </c>
-      <c r="D57" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,38 +3298,121 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" t="s">
         <v>355</v>
-      </c>
-      <c r="C58" t="s">
-        <v>354</v>
-      </c>
-      <c r="D58" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" t="s">
         <v>363</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>364</v>
-      </c>
-      <c r="D59" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" t="s">
         <v>366</v>
       </c>
-      <c r="C60" t="s">
-        <v>367</v>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" t="s">
+        <v>374</v>
+      </c>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>378</v>
+      </c>
+      <c r="C64" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>386</v>
+      </c>
+      <c r="B67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" t="s">
+        <v>387</v>
+      </c>
+      <c r="F67" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3297,32 +3434,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="416">
   <si>
     <t>Refer to column</t>
   </si>
@@ -1219,6 +1219,87 @@
   </si>
   <si>
     <t>part of 'scales' package</t>
+  </si>
+  <si>
+    <t>df[~df['col'].isin(['ye','boi'])]</t>
+  </si>
+  <si>
+    <t>#3 is NOT in</t>
+  </si>
+  <si>
+    <t>Add. Args: index = False</t>
+  </si>
+  <si>
+    <t>String Character Length</t>
+  </si>
+  <si>
+    <t>transform(df, Length=nchar(as.character(A)))</t>
+  </si>
+  <si>
+    <t>Approximate Match</t>
+  </si>
+  <si>
+    <t>agrep('string',df$A)</t>
+  </si>
+  <si>
+    <t>Returns location</t>
+  </si>
+  <si>
+    <t>Count Uniques within Dimension</t>
+  </si>
+  <si>
+    <t>df.groupby('A').CountItem.nunique()</t>
+  </si>
+  <si>
+    <t>Conver to Pandas DF</t>
+  </si>
+  <si>
+    <t>Count IF</t>
+  </si>
+  <si>
+    <t>sum(df$a=='ye',na.rm=T)</t>
+  </si>
+  <si>
+    <t>Categorize Based on Value</t>
+  </si>
+  <si>
+    <t>df['b'] = np.where(df['a'] &gt; 5,'high','low')</t>
+  </si>
+  <si>
+    <t>Match items on list</t>
+  </si>
+  <si>
+    <t>match(df$a,matchtable)</t>
+  </si>
+  <si>
+    <t>nomatch = 0</t>
+  </si>
+  <si>
+    <t>df$a[which(df$a&gt;0)]&lt;-1</t>
+  </si>
+  <si>
+    <t>Change values conditionally</t>
+  </si>
+  <si>
+    <t>Match (Intersection)</t>
+  </si>
+  <si>
+    <t>set(df1) &amp; set(df2)</t>
+  </si>
+  <si>
+    <t>Add. Args: regex = True (for part of a string)</t>
+  </si>
+  <si>
+    <t>Keep Columns</t>
+  </si>
+  <si>
+    <t>df[['a','b']]</t>
+  </si>
+  <si>
+    <t>Keep first occurrence</t>
+  </si>
+  <si>
+    <t>df.groupby('a').first()</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,6 +1870,12 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
+      <c r="E14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1921,13 +2008,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>322</v>
+      </c>
+      <c r="F24" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,6 +2372,9 @@
       <c r="D49" t="s">
         <v>246</v>
       </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2543,6 +2636,51 @@
       </c>
       <c r="C69" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>402</v>
+      </c>
+      <c r="C72" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2553,10 +2691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3413,6 +3551,55 @@
       </c>
       <c r="F67" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C69" t="s">
+        <v>395</v>
+      </c>
+      <c r="F69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>400</v>
+      </c>
+      <c r="C70" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" t="s">
+        <v>405</v>
+      </c>
+      <c r="F71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Data Science" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'R'!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'R'!$A$1:$F$75</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="422">
   <si>
     <t>Refer to column</t>
   </si>
@@ -865,9 +865,6 @@
     <t>Convert to numeric</t>
   </si>
   <si>
-    <t>df[,c(2:5)]&lt;-sapply(df[c(2:5)],as.numeric)</t>
-  </si>
-  <si>
     <t>Concatenate</t>
   </si>
   <si>
@@ -1055,9 +1052,6 @@
   </si>
   <si>
     <t>strptime(df[[1]],"%Y-%m-%d %H:%M:%S")</t>
-  </si>
-  <si>
-    <t>1: Converts to POSIXlt (use for date &amp; time), 2: best; POSIX calculations are always in seconds; may need to convert to POSIXlt BEFORE POSIXct</t>
   </si>
   <si>
     <t>unique(df)</t>
@@ -1300,6 +1294,30 @@
   </si>
   <si>
     <t>df.groupby('a').first()</t>
+  </si>
+  <si>
+    <t>1: Converts to POSIXlt (use for date &amp; time), 2: best; POSIX calculations are always in seconds; may need to convert to POSIXlt BEFORE POSIXct; America/Toronto</t>
+  </si>
+  <si>
+    <t>df[c(2:5)]&lt;-sapply(df[c(2:5)],as.numeric)</t>
+  </si>
+  <si>
+    <t>Count Unique</t>
+  </si>
+  <si>
+    <t>dt[,.(Count=length(unique(cnt_item))),by=list(var1,var2…)]</t>
+  </si>
+  <si>
+    <t>Merge List of DF</t>
+  </si>
+  <si>
+    <t>mapply(merge,list1,list2,by="lookupval",SIMPLIFY=F)</t>
+  </si>
+  <si>
+    <t>Replace value across multiple DF</t>
+  </si>
+  <si>
+    <t>lapply(list_df,function(x) {x$a[is.na(x$a)]&lt;-0; return(x)})</t>
   </si>
 </sst>
 </file>
@@ -1637,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1725,7 +1743,7 @@
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1871,10 +1889,10 @@
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1953,7 +1971,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2014,10 +2032,10 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2053,16 +2071,16 @@
         <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F27" t="s">
         <v>325</v>
-      </c>
-      <c r="F27" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,7 +2144,7 @@
         <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2373,7 +2391,7 @@
         <v>246</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2443,7 +2461,7 @@
         <v>263</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
         <v>264</v>
@@ -2460,10 +2478,10 @@
         <v>180</v>
       </c>
       <c r="C55" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" t="s">
         <v>286</v>
-      </c>
-      <c r="D55" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,7 +2492,7 @@
         <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2499,16 +2517,16 @@
         <v>193</v>
       </c>
       <c r="B58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" t="s">
         <v>291</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" t="s">
         <v>292</v>
-      </c>
-      <c r="D58" t="s">
-        <v>290</v>
-      </c>
-      <c r="F58" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,10 +2534,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
         <v>296</v>
-      </c>
-      <c r="C59" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2527,10 +2545,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" t="s">
         <v>298</v>
-      </c>
-      <c r="C60" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,10 +2556,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
         <v>301</v>
-      </c>
-      <c r="C61" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2552,10 +2570,10 @@
         <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,10 +2581,10 @@
         <v>207</v>
       </c>
       <c r="B63" t="s">
+        <v>305</v>
+      </c>
+      <c r="C63" t="s">
         <v>306</v>
-      </c>
-      <c r="C63" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2574,10 +2592,10 @@
         <v>258</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,13 +2603,13 @@
         <v>207</v>
       </c>
       <c r="B65" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" t="s">
         <v>311</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>312</v>
-      </c>
-      <c r="D65" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,10 +2617,10 @@
         <v>207</v>
       </c>
       <c r="B66" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" t="s">
         <v>314</v>
-      </c>
-      <c r="C66" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,10 +2628,10 @@
         <v>207</v>
       </c>
       <c r="B67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" t="s">
         <v>316</v>
-      </c>
-      <c r="C67" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,66 +2639,66 @@
         <v>207</v>
       </c>
       <c r="B68" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" t="s">
         <v>318</v>
-      </c>
-      <c r="C68" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2691,15 +2709,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74.109375" customWidth="1"/>
     <col min="4" max="4" width="61.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
@@ -2857,7 +2875,7 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3004,7 +3022,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3068,7 +3086,7 @@
         <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>136</v>
@@ -3093,7 +3111,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
         <v>138</v>
@@ -3102,10 +3120,10 @@
         <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3119,10 +3137,10 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,10 +3154,10 @@
         <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,10 +3262,10 @@
         <v>164</v>
       </c>
       <c r="C43" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,24 +3321,24 @@
         <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
         <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3328,10 +3346,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49" t="s">
         <v>279</v>
-      </c>
-      <c r="C49" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3339,46 +3357,46 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" t="s">
         <v>281</v>
-      </c>
-      <c r="C50" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" t="s">
         <v>283</v>
-      </c>
-      <c r="C51" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" t="s">
         <v>327</v>
-      </c>
-      <c r="C52" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s">
         <v>208</v>
       </c>
       <c r="C53" t="s">
+        <v>328</v>
+      </c>
+      <c r="F53" t="s">
         <v>329</v>
-      </c>
-      <c r="F53" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3386,24 +3404,24 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" t="s">
         <v>338</v>
-      </c>
-      <c r="C54" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" t="s">
         <v>344</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>345</v>
-      </c>
-      <c r="C55" t="s">
-        <v>346</v>
-      </c>
-      <c r="D55" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3411,10 +3429,10 @@
         <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C56" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3422,13 +3440,13 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" t="s">
         <v>350</v>
-      </c>
-      <c r="C57" t="s">
-        <v>351</v>
-      </c>
-      <c r="D57" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3436,13 +3454,13 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" t="s">
         <v>353</v>
-      </c>
-      <c r="D58" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3450,24 +3468,24 @@
         <v>192</v>
       </c>
       <c r="B59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C59" t="s">
+        <v>361</v>
+      </c>
+      <c r="D59" t="s">
         <v>362</v>
-      </c>
-      <c r="C59" t="s">
-        <v>363</v>
-      </c>
-      <c r="D59" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3475,13 +3493,13 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" t="s">
+        <v>372</v>
+      </c>
+      <c r="D61" t="s">
         <v>373</v>
-      </c>
-      <c r="C61" t="s">
-        <v>374</v>
-      </c>
-      <c r="D61" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3492,7 +3510,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,10 +3518,10 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C63" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3511,10 +3529,10 @@
         <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3522,10 +3540,10 @@
         <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3533,24 +3551,24 @@
         <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>384</v>
+      </c>
+      <c r="B67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C67" t="s">
+        <v>385</v>
+      </c>
+      <c r="F67" t="s">
         <v>386</v>
-      </c>
-      <c r="B67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" t="s">
-        <v>387</v>
-      </c>
-      <c r="F67" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3558,51 +3576,97 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
         <v>392</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>394</v>
       </c>
-      <c r="C69" t="s">
-        <v>395</v>
-      </c>
-      <c r="F69" t="s">
-        <v>396</v>
-      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
       <c r="B70" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C70" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
       <c r="B71" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" t="s">
+        <v>403</v>
+      </c>
+      <c r="F71" t="s">
         <v>404</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" t="s">
         <v>405</v>
       </c>
-      <c r="F71" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>408</v>
-      </c>
-      <c r="C72" t="s">
-        <v>407</v>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C75" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F75"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -3621,32 +3685,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Coding Reference.xlsx
+++ b/Coding Reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="427">
   <si>
     <t>Refer to column</t>
   </si>
@@ -1318,6 +1318,21 @@
   </si>
   <si>
     <t>lapply(list_df,function(x) {x$a[is.na(x$a)]&lt;-0; return(x)})</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>df.shape[0]</t>
+  </si>
+  <si>
+    <t>OR Statement</t>
+  </si>
+  <si>
+    <t>(x=2) or (x=5)</t>
+  </si>
+  <si>
+    <t>(x=2) | (x=5)</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,6 +2716,25 @@
         <v>413</v>
       </c>
     </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2711,8 +2745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
